--- a/config_hlw/fish_3d_caijin_config.xlsx
+++ b/config_hlw/fish_3d_caijin_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="342">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -779,26 +779,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>120000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -807,30 +787,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*25万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*12万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>40000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -847,14 +803,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*11.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>150000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -871,50 +819,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3.5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*12万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2.2万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3.5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>500000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -935,22 +839,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*12.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>660000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -959,22 +847,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*80万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*26万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1500000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -999,30 +871,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*150万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*100万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*56万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*45万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1043,30 +891,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*400万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*250万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*180万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*120万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*86万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*75万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>600000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1083,30 +907,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*35万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1127,30 +927,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*150万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80.6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1171,30 +947,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*500万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*300万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*158万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*118万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*70万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>6000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1207,30 +959,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*800万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*600万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*400万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*318万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*256万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*128万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>6000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1243,30 +971,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*1000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*600万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*508万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*450万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*300万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>30000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1287,30 +991,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*3000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1500万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*660万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>320000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1323,26 +1003,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*32万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*21.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*12.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1355,22 +1015,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*120万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*100万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*70万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*46.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>5000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1387,26 +1031,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*400万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*250万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*136万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*88万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1415,26 +1039,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*800万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*600万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*500万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*400万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*300万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>9000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1451,30 +1055,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*1000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*900万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*738万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*630万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*480万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>50000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1495,30 +1075,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*5000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2160万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1600万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*980万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*600万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20,22,23,24,25,26,27,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1569,6 +1125,195 @@
   </si>
   <si>
     <t>1500福卡</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>鱼币*40000</t>
+  </si>
+  <si>
+    <t>鱼币*3.50000</t>
+  </si>
+  <si>
+    <t>鱼币*2.20000</t>
+  </si>
+  <si>
+    <t>鱼币*11.80000</t>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+  </si>
+  <si>
+    <t>鱼币*12.80000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*260000</t>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*450000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>鱼币*860000</t>
+  </si>
+  <si>
+    <t>鱼币*750000</t>
+  </si>
+  <si>
+    <t>鱼币*350000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*80.60000</t>
+  </si>
+  <si>
+    <t>鱼币*60.80000</t>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+  </si>
+  <si>
+    <t>鱼币*3000000</t>
+  </si>
+  <si>
+    <t>鱼币*1580000</t>
+  </si>
+  <si>
+    <t>鱼币*1180000</t>
+  </si>
+  <si>
+    <t>鱼币*700000</t>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+  </si>
+  <si>
+    <t>鱼币*3180000</t>
+  </si>
+  <si>
+    <t>鱼币*2560000</t>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+  </si>
+  <si>
+    <t>鱼币*5080000</t>
+  </si>
+  <si>
+    <t>鱼币*4500000</t>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+  </si>
+  <si>
+    <t>鱼币*6600000</t>
+  </si>
+  <si>
+    <t>鱼币*320000</t>
+  </si>
+  <si>
+    <t>鱼币*21.80000</t>
+  </si>
+  <si>
+    <t>鱼币*46.80000</t>
+  </si>
+  <si>
+    <t>鱼币*1360000</t>
+  </si>
+  <si>
+    <t>鱼币*880000</t>
+  </si>
+  <si>
+    <t>鱼币*9000000</t>
+  </si>
+  <si>
+    <t>鱼币*7380000</t>
+  </si>
+  <si>
+    <t>鱼币*6300000</t>
+  </si>
+  <si>
+    <t>鱼币*4800000</t>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+  </si>
+  <si>
+    <t>鱼币*21600000</t>
+  </si>
+  <si>
+    <t>鱼币*16000000</t>
+  </si>
+  <si>
+    <t>鱼币*9800000</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>373</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -3106,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3183,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>144</v>
@@ -3467,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>144</v>
@@ -3769,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>144</v>
@@ -4070,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>144</v>
@@ -4371,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>144</v>
@@ -4450,7 +4195,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>39</v>
@@ -4487,7 +4232,7 @@
         <v>60</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>39</v>
@@ -4524,7 +4269,7 @@
         <v>1950</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>38</v>
@@ -4561,7 +4306,7 @@
         <v>510</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>38</v>
@@ -4598,7 +4343,7 @@
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>31</v>
@@ -4672,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>379</v>
+        <v>268</v>
       </c>
       <c r="H42" s="51" t="s">
         <v>144</v>
@@ -4751,7 +4496,7 @@
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>39</v>
@@ -4788,7 +4533,7 @@
         <v>80</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>39</v>
@@ -4825,7 +4570,7 @@
         <v>1440</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>38</v>
@@ -4856,13 +4601,13 @@
         <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>52</v>
@@ -4899,7 +4644,7 @@
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>31</v>
@@ -4930,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F49" s="31">
         <v>3900</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>31</v>
@@ -4973,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>144</v>
@@ -5051,7 +4796,7 @@
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>39</v>
@@ -5087,7 +4832,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>39</v>
@@ -5117,13 +4862,13 @@
         <v>30</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>38</v>
@@ -5153,13 +4898,13 @@
         <v>30</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>51</v>
@@ -5189,13 +4934,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F56">
         <v>3000</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
@@ -5225,13 +4970,13 @@
         <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F57">
         <v>3500</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>31</v>
@@ -5267,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>144</v>
@@ -5346,7 +5091,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>39</v>
@@ -5377,13 +5122,13 @@
         <v>30</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>39</v>
@@ -5414,13 +5159,13 @@
         <v>30</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>38</v>
@@ -5457,7 +5202,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="H63" s="34" t="s">
         <v>38</v>
@@ -5488,13 +5233,13 @@
         <v>30</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>31</v>
@@ -5525,13 +5270,13 @@
         <v>30</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F65" s="31">
         <v>3900</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>31</v>
@@ -5568,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>144</v>
@@ -5640,13 +5385,13 @@
         <v>30</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>39</v>
@@ -5682,7 +5427,7 @@
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>39</v>
@@ -5712,13 +5457,13 @@
         <v>30</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>38</v>
@@ -5754,7 +5499,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>52</v>
@@ -5784,13 +5529,13 @@
         <v>30</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>31</v>
@@ -5820,13 +5565,13 @@
         <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="F73">
         <v>3900</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>31</v>
@@ -5862,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>144</v>
@@ -5941,7 +5686,7 @@
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>39</v>
@@ -5972,13 +5717,13 @@
         <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>39</v>
@@ -6015,7 +5760,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>38</v>
@@ -6052,7 +5797,7 @@
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>38</v>
@@ -6083,13 +5828,13 @@
         <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>31</v>
@@ -6126,7 +5871,7 @@
         <v>3900</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>31</v>
@@ -6163,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>144</v>
@@ -6235,13 +5980,13 @@
         <v>30</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>39</v>
@@ -6271,13 +6016,13 @@
         <v>30</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>39</v>
@@ -6307,13 +6052,13 @@
         <v>30</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>38</v>
@@ -6343,13 +6088,13 @@
         <v>30</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>38</v>
@@ -6379,13 +6124,13 @@
         <v>30</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>31</v>
@@ -6415,13 +6160,13 @@
         <v>30</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F89">
         <v>3900</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>31</v>
@@ -6457,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>144</v>
@@ -6530,13 +6275,13 @@
         <v>30</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="H92" s="34" t="s">
         <v>39</v>
@@ -6567,13 +6312,13 @@
         <v>30</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>39</v>
@@ -6604,13 +6349,13 @@
         <v>30</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="H94" s="34" t="s">
         <v>38</v>
@@ -6647,7 +6392,7 @@
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="H95" s="34" t="s">
         <v>38</v>
@@ -6678,13 +6423,13 @@
         <v>30</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>31</v>
@@ -6715,13 +6460,13 @@
         <v>30</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="F97" s="31">
         <v>3900</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>31</v>
@@ -6758,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>144</v>
@@ -6831,13 +6576,13 @@
         <v>30</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>39</v>
@@ -6874,7 +6619,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>39</v>
@@ -6905,13 +6650,13 @@
         <v>30</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>38</v>
@@ -6948,7 +6693,7 @@
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>53</v>
@@ -6979,13 +6724,13 @@
         <v>30</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="F104" s="13">
         <v>3000</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>31</v>
@@ -7016,13 +6761,13 @@
         <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="F105" s="13">
         <v>3500</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>31</v>
@@ -7059,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>144</v>
@@ -7132,13 +6877,13 @@
         <v>30</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>39</v>
@@ -7169,13 +6914,13 @@
         <v>30</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="H109" s="34" t="s">
         <v>39</v>
@@ -7206,13 +6951,13 @@
         <v>30</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>38</v>
@@ -7243,13 +6988,13 @@
         <v>30</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>54</v>
@@ -7280,13 +7025,13 @@
         <v>30</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>31</v>
@@ -7323,7 +7068,7 @@
         <v>3900</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>31</v>
@@ -7360,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>144</v>
@@ -7439,7 +7184,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>39</v>
@@ -7470,13 +7215,13 @@
         <v>30</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>39</v>
@@ -7507,13 +7252,13 @@
         <v>30</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>38</v>
@@ -7544,13 +7289,13 @@
         <v>30</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>52</v>
@@ -7581,13 +7326,13 @@
         <v>30</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>31</v>
@@ -7618,13 +7363,13 @@
         <v>30</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="F121" s="13">
         <v>3900</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>31</v>
@@ -7661,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>144</v>
@@ -7740,7 +7485,7 @@
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="H124" s="34" t="s">
         <v>39</v>
@@ -7771,13 +7516,13 @@
         <v>30</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="H125" s="34" t="s">
         <v>39</v>
@@ -7814,7 +7559,7 @@
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H126" s="34" t="s">
         <v>38</v>
@@ -7845,13 +7590,13 @@
         <v>30</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="H127" s="34" t="s">
         <v>56</v>
@@ -7882,13 +7627,13 @@
         <v>30</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>31</v>
@@ -7925,7 +7670,7 @@
         <v>3900</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>31</v>
@@ -7962,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>144</v>
@@ -8041,7 +7786,7 @@
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>39</v>
@@ -8078,7 +7823,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>39</v>
@@ -8109,13 +7854,13 @@
         <v>30</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>38</v>
@@ -8146,13 +7891,13 @@
         <v>30</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>38</v>
@@ -8183,13 +7928,13 @@
         <v>30</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>31</v>
@@ -8226,7 +7971,7 @@
         <v>3900</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>31</v>
@@ -8263,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>388</v>
+        <v>277</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>144</v>
@@ -8337,13 +8082,13 @@
         <v>30</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H140" s="34" t="s">
         <v>39</v>
@@ -8380,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>39</v>
@@ -8411,13 +8156,13 @@
         <v>30</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="H142" s="34" t="s">
         <v>38</v>
@@ -8448,13 +8193,13 @@
         <v>30</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H143" s="34" t="s">
         <v>52</v>
@@ -8485,13 +8230,13 @@
         <v>30</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>31</v>
@@ -8522,13 +8267,13 @@
         <v>30</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="F145" s="31">
         <v>3900</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>31</v>
@@ -8565,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>144</v>
@@ -8643,7 +8388,7 @@
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>39</v>
@@ -8673,13 +8418,13 @@
         <v>30</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>39</v>
@@ -8715,7 +8460,7 @@
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>38</v>
@@ -8745,13 +8490,13 @@
         <v>30</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>53</v>
@@ -8781,13 +8526,13 @@
         <v>30</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>139</v>
@@ -8817,13 +8562,13 @@
         <v>30</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="F153">
         <v>3700</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>31</v>
@@ -8859,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="H154" s="34" t="s">
         <v>144</v>
@@ -8932,13 +8677,13 @@
         <v>30</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="H156" s="34" t="s">
         <v>39</v>
@@ -8975,7 +8720,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="H157" s="34" t="s">
         <v>39</v>
@@ -9006,13 +8751,13 @@
         <v>30</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="H158" s="34" t="s">
         <v>38</v>
@@ -9043,13 +8788,13 @@
         <v>30</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="H159" s="34" t="s">
         <v>55</v>
@@ -9080,13 +8825,13 @@
         <v>30</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>31</v>
@@ -9117,13 +8862,13 @@
         <v>30</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="F161" s="31">
         <v>3900</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>31</v>
@@ -9160,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>144</v>
@@ -9232,13 +8977,13 @@
         <v>30</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>39</v>
@@ -9268,13 +9013,13 @@
         <v>30</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>39</v>
@@ -9310,7 +9055,7 @@
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>38</v>
@@ -9340,13 +9085,13 @@
         <v>30</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>57</v>
@@ -9376,13 +9121,13 @@
         <v>30</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>31</v>
@@ -9412,13 +9157,13 @@
         <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="F169">
         <v>3900</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>31</v>
@@ -9454,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="H170" s="34" t="s">
         <v>144</v>
@@ -9533,7 +9278,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>39</v>
@@ -9570,7 +9315,7 @@
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="H173" s="34" t="s">
         <v>39</v>
@@ -9607,7 +9352,7 @@
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="H174" s="34" t="s">
         <v>38</v>
@@ -9638,13 +9383,13 @@
         <v>30</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="H175" s="34" t="s">
         <v>58</v>
@@ -9675,13 +9420,13 @@
         <v>30</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>31</v>
@@ -9718,7 +9463,7 @@
         <v>3900</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>31</v>
@@ -9755,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>144</v>
@@ -9827,13 +9572,13 @@
         <v>30</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>39</v>
@@ -9863,13 +9608,13 @@
         <v>30</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>39</v>
@@ -9905,7 +9650,7 @@
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>38</v>
@@ -9935,13 +9680,13 @@
         <v>30</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>38</v>
@@ -9971,13 +9716,13 @@
         <v>30</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>31</v>
@@ -10007,13 +9752,13 @@
         <v>30</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="F185">
         <v>3900</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>31</v>
@@ -10049,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="H186" s="34" t="s">
         <v>144</v>
@@ -10123,13 +9868,13 @@
         <v>30</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="H188" s="34" t="s">
         <v>39</v>
@@ -10166,7 +9911,7 @@
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="H189" s="34" t="s">
         <v>39</v>
@@ -10197,13 +9942,13 @@
         <v>30</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="H190" s="34" t="s">
         <v>38</v>
@@ -10234,13 +9979,13 @@
         <v>30</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="H191" s="34" t="s">
         <v>58</v>
@@ -10271,13 +10016,13 @@
         <v>30</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>31</v>
@@ -10308,13 +10053,13 @@
         <v>30</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="F193" s="31">
         <v>3900</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>31</v>
